--- a/CapstoneProject/Resources/data/TestData.xlsx
+++ b/CapstoneProject/Resources/data/TestData.xlsx
@@ -5,14 +5,14 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SDET\Codeprojects\SDETHomework\MMC_SeleniumAutomation\TestAutomation\Resources\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SDET\Codeprojects\SDETHomework\Team1_OrangeHRM\CapstoneProject\Resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5600"/>
   </bookViews>
   <sheets>
-    <sheet name="Valid" sheetId="1" r:id="rId1"/>
+    <sheet name="testValidAdminLogin" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -362,7 +362,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/CapstoneProject/Resources/data/TestData.xlsx
+++ b/CapstoneProject/Resources/data/TestData.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5600"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5600" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="testValidAdminLogin" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="testInvalidAdminLogin" sheetId="2" r:id="rId2"/>
+    <sheet name="testPIMPageLinks" sheetId="3" r:id="rId3"/>
+    <sheet name="testCreateUser" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
   <si>
     <t>Username</t>
   </si>
@@ -41,6 +42,36 @@
   </si>
   <si>
     <t>admin</t>
+  </si>
+  <si>
+    <t>invalidUserName</t>
+  </si>
+  <si>
+    <t>invalidPassword</t>
+  </si>
+  <si>
+    <t>TabNames</t>
+  </si>
+  <si>
+    <t>Employee List;Add Employee;Reports</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>MiddleName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>Harry</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
+    <t>Potter</t>
   </si>
 </sst>
 </file>
@@ -361,8 +392,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -402,14 +433,31 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -417,12 +465,86 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/CapstoneProject/Resources/data/TestData.xlsx
+++ b/CapstoneProject/Resources/data/TestData.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5600" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5600" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="testValidAdminLogin" sheetId="1" r:id="rId1"/>
     <sheet name="testInvalidAdminLogin" sheetId="2" r:id="rId2"/>
     <sheet name="testPIMPageLinks" sheetId="3" r:id="rId3"/>
     <sheet name="testCreateUser" sheetId="4" r:id="rId4"/>
+    <sheet name="testDashboardSections" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
   <si>
     <t>Username</t>
   </si>
@@ -72,6 +73,12 @@
   </si>
   <si>
     <t>Potter</t>
+  </si>
+  <si>
+    <t>Sections</t>
+  </si>
+  <si>
+    <t>Time at Work;My Actions;Quick Launch;Buzz Latest Posts;Employees on Leave Today;Employee Distribution by Sub Unit;Employee Distribution by Location</t>
   </si>
 </sst>
 </file>
@@ -107,8 +114,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -393,7 +401,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -436,10 +444,14 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.36328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -504,8 +516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -547,4 +559,44 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="16384" width="8.7265625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/CapstoneProject/Resources/data/TestData.xlsx
+++ b/CapstoneProject/Resources/data/TestData.xlsx
@@ -3,13 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SDET\Codeprojects\SDETHomework\Team1_OrangeHRM\CapstoneProject\Resources\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5600" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14010" windowHeight="4170" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="testValidAdminLogin" sheetId="1" r:id="rId1"/>
@@ -17,8 +12,11 @@
     <sheet name="testPIMPageLinks" sheetId="3" r:id="rId3"/>
     <sheet name="testCreateUser" sheetId="4" r:id="rId4"/>
     <sheet name="testDashboardSections" sheetId="5" r:id="rId5"/>
+    <sheet name="testCreateClaim" sheetId="6" r:id="rId6"/>
+    <sheet name="testCancelclaim" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:N12"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="21">
   <si>
     <t>Username</t>
   </si>
@@ -79,6 +77,18 @@
   </si>
   <si>
     <t>Time at Work;My Actions;Quick Launch;Buzz Latest Posts;Employees on Leave Today;Employee Distribution by Sub Unit;Employee Distribution by Location</t>
+  </si>
+  <si>
+    <t>Event_select</t>
+  </si>
+  <si>
+    <t>Currency_select</t>
+  </si>
+  <si>
+    <t>Travel Allowance</t>
+  </si>
+  <si>
+    <t>Afghanistan Afghani</t>
   </si>
 </sst>
 </file>
@@ -401,12 +411,12 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -435,6 +445,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -449,8 +460,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -471,6 +482,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -509,6 +521,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -558,6 +571,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -565,11 +579,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="16384" width="8.7265625" style="1"/>
   </cols>
@@ -598,5 +612,94 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/CapstoneProject/Resources/data/TestData.xlsx
+++ b/CapstoneProject/Resources/data/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14010" windowHeight="4170" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21140" windowHeight="9480" firstSheet="4" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="testValidAdminLogin" sheetId="1" r:id="rId1"/>
@@ -14,9 +14,10 @@
     <sheet name="testDashboardSections" sheetId="5" r:id="rId5"/>
     <sheet name="testCreateClaim" sheetId="6" r:id="rId6"/>
     <sheet name="testCancelclaim" sheetId="7" r:id="rId7"/>
+    <sheet name="testClaimDashboard" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:N12"/>
+  <oleSize ref="A1:U30"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="29">
   <si>
     <t>Username</t>
   </si>
@@ -89,6 +90,30 @@
   </si>
   <si>
     <t>Afghanistan Afghani</t>
+  </si>
+  <si>
+    <t>Header1</t>
+  </si>
+  <si>
+    <t>Header2</t>
+  </si>
+  <si>
+    <t>Header3</t>
+  </si>
+  <si>
+    <t>Header4</t>
+  </si>
+  <si>
+    <t>Submit Claim</t>
+  </si>
+  <si>
+    <t>My Claims</t>
+  </si>
+  <si>
+    <t>Employee Claims</t>
+  </si>
+  <si>
+    <t>Assign Claim</t>
   </si>
 </sst>
 </file>
@@ -664,8 +689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -702,4 +727,63 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/CapstoneProject/Resources/data/TestData.xlsx
+++ b/CapstoneProject/Resources/data/TestData.xlsx
@@ -3,8 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SDET\Codeprojects\SDETHomework\Team1_OrangeHRM\CapstoneProject\Resources\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21140" windowHeight="9480" firstSheet="4" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21140" windowHeight="9480" firstSheet="6" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="testValidAdminLogin" sheetId="1" r:id="rId1"/>
@@ -15,9 +20,10 @@
     <sheet name="testCreateClaim" sheetId="6" r:id="rId6"/>
     <sheet name="testCancelclaim" sheetId="7" r:id="rId7"/>
     <sheet name="testClaimDashboard" sheetId="8" r:id="rId8"/>
+    <sheet name="testCreateVacancy" sheetId="9" r:id="rId9"/>
+    <sheet name="testVacancySearch" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:U30"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="39">
   <si>
     <t>Username</t>
   </si>
@@ -114,6 +120,36 @@
   </si>
   <si>
     <t>Assign Claim</t>
+  </si>
+  <si>
+    <t>VacancyName</t>
+  </si>
+  <si>
+    <t>Vacancy for CapstoneProject</t>
+  </si>
+  <si>
+    <t>JobTitle</t>
+  </si>
+  <si>
+    <t>QA Lead</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Automation Tester</t>
+  </si>
+  <si>
+    <t>HiringManager</t>
+  </si>
+  <si>
+    <t>Orange Test</t>
+  </si>
+  <si>
+    <t>NumOfPositions</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
 </sst>
 </file>
@@ -149,9 +185,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -474,6 +511,37 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
@@ -731,10 +799,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -743,7 +811,7 @@
     <col min="7" max="7" width="12.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -763,7 +831,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -781,6 +849,67 @@
       </c>
       <c r="F2" t="s">
         <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/CapstoneProject/Resources/data/TestData.xlsx
+++ b/CapstoneProject/Resources/data/TestData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21140" windowHeight="9480" firstSheet="6" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21140" windowHeight="9480" firstSheet="8" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="testValidAdminLogin" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,8 @@
     <sheet name="testClaimDashboard" sheetId="8" r:id="rId8"/>
     <sheet name="testCreateVacancy" sheetId="9" r:id="rId9"/>
     <sheet name="testVacancySearch" sheetId="10" r:id="rId10"/>
+    <sheet name="testCreateCandidate" sheetId="11" r:id="rId11"/>
+    <sheet name="testRecruitmentPageTabs" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="46">
   <si>
     <t>Username</t>
   </si>
@@ -150,6 +152,27 @@
   </si>
   <si>
     <t>2</t>
+  </si>
+  <si>
+    <t>Ron</t>
+  </si>
+  <si>
+    <t>Arthur</t>
+  </si>
+  <si>
+    <t>Weasley</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>ron@example.com</t>
+  </si>
+  <si>
+    <t>Tabs</t>
+  </si>
+  <si>
+    <t>Candidates;Vacancies</t>
   </si>
 </sst>
 </file>
@@ -542,6 +565,98 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
@@ -860,7 +975,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>

--- a/CapstoneProject/Resources/data/TestData.xlsx
+++ b/CapstoneProject/Resources/data/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21140" windowHeight="9480" firstSheet="4" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21310" windowHeight="6290" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="testValidAdminLogin" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,15 @@
     <sheet name="testPIMPageLinks" sheetId="3" r:id="rId3"/>
     <sheet name="testCreateUser" sheetId="4" r:id="rId4"/>
     <sheet name="testDashboardSections" sheetId="5" r:id="rId5"/>
-    <sheet name="testCreateClaim" sheetId="6" r:id="rId6"/>
-    <sheet name="testCancelclaim" sheetId="7" r:id="rId7"/>
-    <sheet name="testClaimDashboard" sheetId="8" r:id="rId8"/>
+    <sheet name="testAssignClaim" sheetId="11" r:id="rId6"/>
+    <sheet name="testAssignClaimremarks" sheetId="9" r:id="rId7"/>
+    <sheet name="testCreateClaimRemarks" sheetId="12" r:id="rId8"/>
+    <sheet name="testCreateClaim" sheetId="6" r:id="rId9"/>
+    <sheet name="testCancelclaim" sheetId="7" r:id="rId10"/>
+    <sheet name="testClaimDashboard" sheetId="8" r:id="rId11"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:U30"/>
+  <oleSize ref="A1:U19"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="33">
   <si>
     <t>Username</t>
   </si>
@@ -114,6 +117,18 @@
   </si>
   <si>
     <t>Assign Claim</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Added Claim </t>
+  </si>
+  <si>
+    <t>EmpName</t>
+  </si>
+  <si>
+    <t>Orange Test</t>
   </si>
 </sst>
 </file>
@@ -474,6 +489,116 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
@@ -643,15 +768,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D2"/>
+      <selection activeCell="F1" sqref="F1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -664,8 +789,14 @@
       <c r="D1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -678,6 +809,12 @@
       <c r="D2" t="s">
         <v>20</v>
       </c>
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -687,15 +824,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -708,8 +845,14 @@
       <c r="D1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -722,6 +865,12 @@
       <c r="D2" t="s">
         <v>20</v>
       </c>
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -731,19 +880,15 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="3" max="3" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.1796875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -751,19 +896,16 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -771,19 +913,67 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/CapstoneProject/Resources/data/TestData.xlsx
+++ b/CapstoneProject/Resources/data/TestData.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SDET\Codeprojects\SDETHomework\Team1_OrangeHRM\CapstoneProject\Resources\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\U1230894\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21140" windowHeight="9480" firstSheet="8" activeTab="11"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" firstSheet="6" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="testValidAdminLogin" sheetId="1" r:id="rId1"/>
@@ -19,11 +19,11 @@
     <sheet name="testDashboardSections" sheetId="5" r:id="rId5"/>
     <sheet name="testCreateClaim" sheetId="6" r:id="rId6"/>
     <sheet name="testCancelclaim" sheetId="7" r:id="rId7"/>
-    <sheet name="testClaimDashboard" sheetId="8" r:id="rId8"/>
-    <sheet name="testCreateVacancy" sheetId="9" r:id="rId9"/>
-    <sheet name="testVacancySearch" sheetId="10" r:id="rId10"/>
-    <sheet name="testCreateCandidate" sheetId="11" r:id="rId11"/>
-    <sheet name="testRecruitmentPageTabs" sheetId="12" r:id="rId12"/>
+    <sheet name="testValidateTabs" sheetId="8" r:id="rId8"/>
+    <sheet name="testLeaveEntitlement" sheetId="9" r:id="rId9"/>
+    <sheet name="testClaimDashboard" sheetId="10" r:id="rId10"/>
+    <sheet name="testAssignClaimremarks" sheetId="11" r:id="rId11"/>
+    <sheet name="testAssignClaim" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="37">
   <si>
     <t>Username</t>
   </si>
@@ -100,6 +100,12 @@
     <t>Afghanistan Afghani</t>
   </si>
   <si>
+    <t>Leave_Type</t>
+  </si>
+  <si>
+    <t>CAN - Vacation</t>
+  </si>
+  <si>
     <t>Header1</t>
   </si>
   <si>
@@ -112,6 +118,9 @@
     <t>Header4</t>
   </si>
   <si>
+    <t>Header5</t>
+  </si>
+  <si>
     <t>Submit Claim</t>
   </si>
   <si>
@@ -124,68 +133,43 @@
     <t>Assign Claim</t>
   </si>
   <si>
-    <t>VacancyName</t>
-  </si>
-  <si>
-    <t>Vacancy for CapstoneProject</t>
-  </si>
-  <si>
-    <t>JobTitle</t>
-  </si>
-  <si>
-    <t>QA Lead</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Automation Tester</t>
-  </si>
-  <si>
-    <t>HiringManager</t>
+    <t>Configuration</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>EmpName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Added Claim </t>
   </si>
   <si>
     <t>Orange Test</t>
-  </si>
-  <si>
-    <t>NumOfPositions</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Ron</t>
-  </si>
-  <si>
-    <t>Arthur</t>
-  </si>
-  <si>
-    <t>Weasley</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>ron@example.com</t>
-  </si>
-  <si>
-    <t>Tabs</t>
-  </si>
-  <si>
-    <t>Candidates;Vacancies</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -208,10 +192,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -499,12 +486,12 @@
       <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -512,7 +499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -520,7 +507,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -536,46 +523,269 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <selection sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -591,11 +801,8 @@
       <c r="E1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -603,34 +810,73 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="8.7109375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -638,10 +884,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -649,385 +898,131 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2"/>
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.453125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="16384" width="8.7265625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="22.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="3" max="3" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.1796875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/CapstoneProject/Resources/data/TestData.xlsx
+++ b/CapstoneProject/Resources/data/TestData.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\U1230894\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SDET\Codeprojects\SDETHomework\Team1_OrangeHRM\CapstoneProject\Resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" firstSheet="6" activeTab="11"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19430" windowHeight="10430" firstSheet="10" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="testValidAdminLogin" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,10 @@
     <sheet name="testClaimDashboard" sheetId="10" r:id="rId10"/>
     <sheet name="testAssignClaimremarks" sheetId="11" r:id="rId11"/>
     <sheet name="testAssignClaim" sheetId="12" r:id="rId12"/>
+    <sheet name="testRecruitmentPageTabs" sheetId="13" r:id="rId13"/>
+    <sheet name="testCreateCandidate" sheetId="14" r:id="rId14"/>
+    <sheet name="testVacancySearch" sheetId="15" r:id="rId15"/>
+    <sheet name="testCreateVacancy" sheetId="16" r:id="rId16"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -35,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="54">
   <si>
     <t>Username</t>
   </si>
@@ -146,6 +150,57 @@
   </si>
   <si>
     <t>Orange Test</t>
+  </si>
+  <si>
+    <t>Tabs</t>
+  </si>
+  <si>
+    <t>Candidates;Vacancies</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Ron</t>
+  </si>
+  <si>
+    <t>Arthur</t>
+  </si>
+  <si>
+    <t>Weasley</t>
+  </si>
+  <si>
+    <t>ron@example.com</t>
+  </si>
+  <si>
+    <t>VacancyName</t>
+  </si>
+  <si>
+    <t>JobTitle</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>HiringManager</t>
+  </si>
+  <si>
+    <t>NumOfPositions</t>
+  </si>
+  <si>
+    <t>Vacancy for CapstoneProject</t>
+  </si>
+  <si>
+    <t>QA Lead</t>
+  </si>
+  <si>
+    <t>Automation Tester</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Added Claim</t>
   </si>
 </sst>
 </file>
@@ -192,13 +247,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -486,12 +542,12 @@
       <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -499,7 +555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -507,7 +563,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -529,13 +585,13 @@
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -558,7 +614,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -592,12 +648,12 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <selection activeCell="E1" sqref="E1:E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -617,7 +673,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -648,12 +704,12 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -673,7 +729,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -699,6 +755,190 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
@@ -708,13 +948,13 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -722,7 +962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -745,9 +985,9 @@
       <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -758,7 +998,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -783,9 +1023,9 @@
       <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -802,7 +1042,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -833,12 +1073,12 @@
       <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -849,7 +1089,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -868,15 +1108,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -889,8 +1129,11 @@
       <c r="D1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -903,6 +1146,9 @@
       <c r="D2" t="s">
         <v>20</v>
       </c>
+      <c r="E2" t="s">
+        <v>53</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -912,15 +1158,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -933,8 +1179,11 @@
       <c r="D1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -947,6 +1196,9 @@
       <c r="D2" t="s">
         <v>20</v>
       </c>
+      <c r="E2" t="s">
+        <v>53</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -962,9 +1214,9 @@
       <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -972,7 +1224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -994,12 +1246,12 @@
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="22.5703125" customWidth="1"/>
+    <col min="3" max="3" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1010,7 +1262,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>

--- a/CapstoneProject/Resources/data/TestData.xlsx
+++ b/CapstoneProject/Resources/data/TestData.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26930"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\U1230894\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SDET\Codeprojects\SDETHomework\Team1_OrangeHRM\CapstoneProject\Resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_C7106A12BEC4CAAC3D80463110DB5AF34C1A5B9E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4EA7316F-D09D-45CD-9913-A5BA3325C6CF}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" firstSheet="6" activeTab="11"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19430" windowHeight="10430" firstSheet="11" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="testValidAdminLogin" sheetId="1" r:id="rId1"/>
@@ -24,18 +25,33 @@
     <sheet name="testClaimDashboard" sheetId="10" r:id="rId10"/>
     <sheet name="testAssignClaimremarks" sheetId="11" r:id="rId11"/>
     <sheet name="testAssignClaim" sheetId="12" r:id="rId12"/>
+    <sheet name="testRecruitmentPageTabs" sheetId="13" r:id="rId13"/>
+    <sheet name="testCreateCandidate" sheetId="14" r:id="rId14"/>
+    <sheet name="testVacancySearch" sheetId="15" r:id="rId15"/>
+    <sheet name="testCreateVacancy" sheetId="16" r:id="rId16"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="59">
   <si>
     <t>Username</t>
   </si>
@@ -94,12 +110,30 @@
     <t>Currency_select</t>
   </si>
   <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
     <t>Travel Allowance</t>
   </si>
   <si>
     <t>Afghanistan Afghani</t>
   </si>
   <si>
+    <t xml:space="preserve">Added Claim </t>
+  </si>
+  <si>
+    <t>Added expense</t>
+  </si>
+  <si>
+    <t>Added Claim</t>
+  </si>
+  <si>
     <t>Leave_Type</t>
   </si>
   <si>
@@ -136,23 +170,71 @@
     <t>Configuration</t>
   </si>
   <si>
-    <t>Remarks</t>
-  </si>
-  <si>
-    <t>EmpName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Added Claim </t>
+    <t>Christian</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Bale</t>
+  </si>
+  <si>
+    <t>Tabs</t>
+  </si>
+  <si>
+    <t>Candidates;Vacancies</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Ron</t>
+  </si>
+  <si>
+    <t>Arthur</t>
+  </si>
+  <si>
+    <t>Weasley</t>
+  </si>
+  <si>
+    <t>ron@example.com</t>
+  </si>
+  <si>
+    <t>VacancyName</t>
+  </si>
+  <si>
+    <t>JobTitle</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>HiringManager</t>
+  </si>
+  <si>
+    <t>NumOfPositions</t>
+  </si>
+  <si>
+    <t>Vacancy for CapstoneProject</t>
+  </si>
+  <si>
+    <t>QA Lead</t>
+  </si>
+  <si>
+    <t>Automation Tester</t>
   </si>
   <si>
     <t>Orange Test</t>
   </si>
+  <si>
+    <t>2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,6 +252,12 @@
       <sz val="11"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -192,13 +280,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="15" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -478,7 +569,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -486,12 +577,12 @@
       <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
     <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -499,7 +590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -507,7 +598,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -522,20 +613,20 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
     <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -543,22 +634,345 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="5"/>
+    </row>
+    <row r="2" spans="1:9" ht="15">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>23</v>
       </c>
+      <c r="E2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
       <c r="D1" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>26</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" t="s">
+        <v>52</v>
       </c>
       <c r="G1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -566,141 +980,28 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+        <v>57</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -708,13 +1009,13 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
     <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -722,7 +1023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -737,7 +1038,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -745,9 +1046,9 @@
       <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetData>
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -758,7 +1059,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -776,16 +1077,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetData>
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -802,7 +1103,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -826,37 +1127,34 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="16384" width="8.7109375" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -867,16 +1165,125 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:K5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="5"/>
+      <c r="F1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+    </row>
+    <row r="2" spans="1:11" ht="15">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="4">
+        <v>2000</v>
+      </c>
+      <c r="I2" s="6"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="1:11" ht="15">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:11" ht="15">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:11" ht="15">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetData>
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -889,8 +1296,11 @@
       <c r="D1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -898,10 +1308,13 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -910,75 +1323,31 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetData>
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -987,38 +1356,38 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
     <col min="3" max="3" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>22</v>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/CapstoneProject/Resources/data/TestData.xlsx
+++ b/CapstoneProject/Resources/data/TestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26930"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SDET\Codeprojects\SDETHomework\Team1_OrangeHRM\CapstoneProject\Resources\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mmcglobalind-my.sharepoint.com/personal/neha_garg2_mmc_com/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_C7106A12BEC4CAAC3D80463110DB5AF34C1A5B9E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4EA7316F-D09D-45CD-9913-A5BA3325C6CF}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="11_C7106A12BEC4CAAC3D80463110DB5AF34C1A5B9E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{126EB97B-545A-4533-BB43-BE74D44FA2E4}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19430" windowHeight="10430" firstSheet="11" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="9" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="testValidAdminLogin" sheetId="1" r:id="rId1"/>
@@ -21,14 +21,16 @@
     <sheet name="testCreateClaim" sheetId="6" r:id="rId6"/>
     <sheet name="testCancelclaim" sheetId="7" r:id="rId7"/>
     <sheet name="testValidateTabs" sheetId="8" r:id="rId8"/>
-    <sheet name="testLeaveEntitlement" sheetId="9" r:id="rId9"/>
-    <sheet name="testClaimDashboard" sheetId="10" r:id="rId10"/>
-    <sheet name="testAssignClaimremarks" sheetId="11" r:id="rId11"/>
-    <sheet name="testAssignClaim" sheetId="12" r:id="rId12"/>
-    <sheet name="testRecruitmentPageTabs" sheetId="13" r:id="rId13"/>
-    <sheet name="testCreateCandidate" sheetId="14" r:id="rId14"/>
-    <sheet name="testVacancySearch" sheetId="15" r:id="rId15"/>
-    <sheet name="testCreateVacancy" sheetId="16" r:id="rId16"/>
+    <sheet name="testUpdateLeaveEntitlement" sheetId="17" r:id="rId9"/>
+    <sheet name="testViewLeaveReports" sheetId="18" r:id="rId10"/>
+    <sheet name="testAddLeaveEntitlement" sheetId="9" r:id="rId11"/>
+    <sheet name="testClaimDashboard" sheetId="10" r:id="rId12"/>
+    <sheet name="testAssignClaimremarks" sheetId="11" r:id="rId13"/>
+    <sheet name="testAssignClaim" sheetId="12" r:id="rId14"/>
+    <sheet name="testRecruitmentPageTabs" sheetId="13" r:id="rId15"/>
+    <sheet name="testCreateCandidate" sheetId="14" r:id="rId16"/>
+    <sheet name="testVacancySearch" sheetId="15" r:id="rId17"/>
+    <sheet name="testCreateVacancy" sheetId="16" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -42,8 +44,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="60">
   <si>
     <t>Username</t>
   </si>
@@ -228,13 +228,16 @@
   </si>
   <si>
     <t>2</t>
+  </si>
+  <si>
+    <t>Leave_count</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -247,11 +250,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Consolas"/>
-      <family val="3"/>
     </font>
     <font>
       <sz val="11"/>
@@ -283,13 +281,13 @@
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="15" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -577,12 +575,12 @@
       <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -590,7 +588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -598,7 +596,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -613,20 +611,110 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A60687F-9B81-4E46-8FE1-857011E9BB3D}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="1">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="22.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="1">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -649,7 +737,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -678,7 +766,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -686,61 +774,61 @@
       <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
-  <sheetData>
-    <row r="1" spans="1:9" ht="15">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="5"/>
-    </row>
-    <row r="2" spans="1:9" ht="15">
-      <c r="A2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="I1" s="4"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I2" s="4"/>
+      <c r="I2" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -748,7 +836,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -756,57 +844,57 @@
       <selection sqref="A1:H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
-  <sheetData>
-    <row r="1" spans="1:8" ht="15">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15">
-      <c r="A2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="4" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>41</v>
       </c>
     </row>
@@ -816,7 +904,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -824,9 +912,9 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
-  <sheetData>
-    <row r="1" spans="1:3">
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -837,7 +925,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -853,7 +941,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -861,9 +949,9 @@
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
-  <sheetData>
-    <row r="1" spans="1:6">
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -883,7 +971,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -908,7 +996,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -916,9 +1004,9 @@
       <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
-  <sheetData>
-    <row r="1" spans="1:2">
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -926,7 +1014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -939,7 +1027,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -947,9 +1035,9 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
-  <sheetData>
-    <row r="1" spans="1:7">
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -972,7 +1060,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -991,7 +1079,7 @@
       <c r="F2" t="s">
         <v>57</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1009,13 +1097,13 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1023,7 +1111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1046,9 +1134,9 @@
       <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
-  <sheetData>
-    <row r="1" spans="1:3">
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1059,7 +1147,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1084,9 +1172,9 @@
       <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
-  <sheetData>
-    <row r="1" spans="1:5">
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1103,7 +1191,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1134,9 +1222,9 @@
       <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
-  <sheetData>
-    <row r="1" spans="1:3">
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1147,7 +1235,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1168,104 +1256,104 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
-  <sheetData>
-    <row r="1" spans="1:11" ht="15">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="4" t="s">
+      <c r="E1" s="4"/>
+      <c r="F1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-    </row>
-    <row r="2" spans="1:11" ht="15">
-      <c r="A2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="4" t="s">
+      <c r="E2" s="4"/>
+      <c r="F2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="3">
         <v>2000</v>
       </c>
-      <c r="I2" s="6"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-    </row>
-    <row r="3" spans="1:11" ht="15">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-    </row>
-    <row r="4" spans="1:11" ht="15">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-    </row>
-    <row r="5" spans="1:11" ht="15">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1281,9 +1369,9 @@
       <selection activeCell="E1" sqref="E1:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
-  <sheetData>
-    <row r="1" spans="1:5">
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1300,7 +1388,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1325,28 +1413,40 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="1">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1356,42 +1456,44 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
-  <cols>
-    <col min="3" max="3" width="22.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{427072A5-F199-4DF6-ABBC-1E122471C502}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="6" t="s">
         <v>28</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+      <c r="D2" s="1">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/CapstoneProject/Resources/data/TestData.xlsx
+++ b/CapstoneProject/Resources/data/TestData.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mmcglobalind-my.sharepoint.com/personal/neha_garg2_mmc_com/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SDET\Codeprojects\SDETHomework\Team1_OrangeHRM\CapstoneProject\Resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="11_C7106A12BEC4CAAC3D80463110DB5AF34C1A5B9E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{126EB97B-545A-4533-BB43-BE74D44FA2E4}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="9" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="5" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="testValidAdminLogin" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
     <sheet name="testPIMPageLinks" sheetId="3" r:id="rId3"/>
     <sheet name="testCreateUser" sheetId="4" r:id="rId4"/>
     <sheet name="testDashboardSections" sheetId="5" r:id="rId5"/>
-    <sheet name="testCreateClaim" sheetId="6" r:id="rId6"/>
+    <sheet name="testCreateClaim" sheetId="19" r:id="rId6"/>
     <sheet name="testCancelclaim" sheetId="7" r:id="rId7"/>
     <sheet name="testValidateTabs" sheetId="8" r:id="rId8"/>
     <sheet name="testUpdateLeaveEntitlement" sheetId="17" r:id="rId9"/>
@@ -32,7 +31,7 @@
     <sheet name="testVacancySearch" sheetId="15" r:id="rId17"/>
     <sheet name="testCreateVacancy" sheetId="16" r:id="rId18"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -51,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="63">
   <si>
     <t>Username</t>
   </si>
@@ -232,11 +231,20 @@
   <si>
     <t>Leave_count</t>
   </si>
+  <si>
+    <t>Hermoine</t>
+  </si>
+  <si>
+    <t>Jean</t>
+  </si>
+  <si>
+    <t>Granger</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -278,13 +286,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -567,7 +574,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -611,7 +618,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A60687F-9B81-4E46-8FE1-857011E9BB3D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -630,7 +637,7 @@
       <c r="C1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>59</v>
       </c>
     </row>
@@ -641,7 +648,7 @@
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D2" s="1">
@@ -654,16 +661,17 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D2"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="22.54296875" customWidth="1"/>
+    <col min="4" max="4" width="11.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
@@ -676,7 +684,7 @@
       <c r="C1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>59</v>
       </c>
     </row>
@@ -687,7 +695,7 @@
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D2" s="1">
@@ -701,10 +709,10 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
@@ -767,11 +775,11 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -837,11 +845,11 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H2"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -905,7 +913,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -942,7 +950,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -997,7 +1005,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1028,16 +1036,16 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1059,8 +1067,17 @@
       <c r="G1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1082,6 +1099,15 @@
       <c r="G2" s="2" t="s">
         <v>58</v>
       </c>
+      <c r="H2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J2" t="s">
+        <v>62</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1089,7 +1115,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1126,7 +1152,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -1165,11 +1191,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
+      <selection activeCell="C1" sqref="C1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1215,7 +1241,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1253,16 +1279,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:K5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1285,11 +1311,8 @@
       <c r="H1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -1312,57 +1335,14 @@
       <c r="H2" s="3">
         <v>2000</v>
       </c>
-      <c r="I2" s="5"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1412,7 +1392,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1431,7 +1411,7 @@
       <c r="C1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1442,7 +1422,7 @@
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D2" s="1">
@@ -1456,7 +1436,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{427072A5-F199-4DF6-ABBC-1E122471C502}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1475,7 +1455,7 @@
       <c r="C1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1486,7 +1466,7 @@
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D2" s="1">
